--- a/AccessoriesTable.xlsx
+++ b/AccessoriesTable.xlsx
@@ -694,7 +694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -1422,7 +1422,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
